--- a/backend/storage/app/xlsx/seed_cidades_df.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_df.xlsx
@@ -23,7 +23,7 @@
     <t>BRASILIENSE</t>
   </si>
   <si>
-    <t>5e84a46b-2567-460d-87bd-067828497a69</t>
+    <t>3bf4d5ef-3478-49f3-8f3a-7371a7c8ecab</t>
   </si>
 </sst>
 </file>

--- a/backend/storage/app/xlsx/seed_cidades_df.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_df.xlsx
@@ -23,7 +23,7 @@
     <t>BRASILIENSE</t>
   </si>
   <si>
-    <t>3bf4d5ef-3478-49f3-8f3a-7371a7c8ecab</t>
+    <t>21283cf1-7978-4bc5-9784-c161b4d29731</t>
   </si>
 </sst>
 </file>

--- a/backend/storage/app/xlsx/seed_cidades_df.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_df.xlsx
@@ -23,7 +23,7 @@
     <t>BRASILIENSE</t>
   </si>
   <si>
-    <t>21283cf1-7978-4bc5-9784-c161b4d29731</t>
+    <t>0a529a5f-0821-4c03-b725-7076a13b4c58</t>
   </si>
 </sst>
 </file>

--- a/backend/storage/app/xlsx/seed_cidades_df.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_df.xlsx
@@ -23,7 +23,7 @@
     <t>BRASILIENSE</t>
   </si>
   <si>
-    <t>0a529a5f-0821-4c03-b725-7076a13b4c58</t>
+    <t>f04369f8-54ae-4289-abb8-d99960a05c24</t>
   </si>
 </sst>
 </file>

--- a/backend/storage/app/xlsx/seed_cidades_df.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_df.xlsx
@@ -23,7 +23,7 @@
     <t>BRASILIENSE</t>
   </si>
   <si>
-    <t>f04369f8-54ae-4289-abb8-d99960a05c24</t>
+    <t>c187816c-d7b5-42d7-a77a-500adc3769bf</t>
   </si>
 </sst>
 </file>

--- a/backend/storage/app/xlsx/seed_cidades_df.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_df.xlsx
@@ -23,7 +23,7 @@
     <t>BRASILIENSE</t>
   </si>
   <si>
-    <t>c187816c-d7b5-42d7-a77a-500adc3769bf</t>
+    <t>c12b856e-1016-45f2-84a6-950ab797a965</t>
   </si>
 </sst>
 </file>
